--- a/data/aunt1.2(1, 1).xlsx
+++ b/data/aunt1.2(1, 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756655FB-F70A-4B42-845B-B4784F4FB470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65569136-6694-44AC-A46E-C54C674610F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>serviceScore</t>
   </si>
@@ -61,64 +61,85 @@
     <t>id</t>
   </si>
   <si>
-    <t>[77]</t>
-  </si>
-  <si>
-    <t>[138]</t>
-  </si>
-  <si>
-    <t>[163]</t>
-  </si>
-  <si>
-    <t>[99]</t>
-  </si>
-  <si>
-    <t>[75]</t>
-  </si>
-  <si>
-    <t>[66]</t>
-  </si>
-  <si>
-    <t>[146]</t>
-  </si>
-  <si>
-    <t>[123]</t>
-  </si>
-  <si>
-    <t>[70]</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[147]</t>
-  </si>
-  <si>
-    <t>[61]</t>
-  </si>
-  <si>
-    <t>[69]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[119]</t>
-  </si>
-  <si>
-    <t>[178]</t>
-  </si>
-  <si>
-    <t>[59]</t>
-  </si>
-  <si>
-    <t>[29]</t>
-  </si>
-  <si>
-    <t>[97]</t>
-  </si>
-  <si>
-    <t>[0.0]</t>
+    <t>[122, 158]</t>
+  </si>
+  <si>
+    <t>[138, 84]</t>
+  </si>
+  <si>
+    <t>[153, 135]</t>
+  </si>
+  <si>
+    <t>[99, 86]</t>
+  </si>
+  <si>
+    <t>[75, 174]</t>
+  </si>
+  <si>
+    <t>[66, 123]</t>
+  </si>
+  <si>
+    <t>[146, 93, 24]</t>
+  </si>
+  <si>
+    <t>[17, 150]</t>
+  </si>
+  <si>
+    <t>[70, 68]</t>
+  </si>
+  <si>
+    <t>[77, 67, 30]</t>
+  </si>
+  <si>
+    <t>[15, 147, 178]</t>
+  </si>
+  <si>
+    <t>[145, 29]</t>
+  </si>
+  <si>
+    <t>[61, 168]</t>
+  </si>
+  <si>
+    <t>[163, 35]</t>
+  </si>
+  <si>
+    <t>[89, 107, 69]</t>
+  </si>
+  <si>
+    <t>[119, 39]</t>
+  </si>
+  <si>
+    <t>[110, 134]</t>
+  </si>
+  <si>
+    <t>[130, 59, 1]</t>
+  </si>
+  <si>
+    <t>[81, 11, 90]</t>
+  </si>
+  <si>
+    <t>[58, 7, 97, 124]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.5]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.5]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 3.5]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.5, 3.5]</t>
+  </si>
+  <si>
+    <t>[0.0, 2.0, 4.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.5, 3.0, 4.0]</t>
   </si>
 </sst>
 </file>
@@ -533,14 +554,17 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G2:G21"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -598,13 +622,13 @@
         <v>-31576</v>
       </c>
       <c r="E2" s="2">
-        <v>-8.99</v>
+        <v>-2.88</v>
       </c>
       <c r="F2" s="2">
-        <v>-27.565000000000001</v>
+        <v>-39.468000000000004</v>
       </c>
       <c r="G2" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -613,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -639,22 +663,22 @@
         <v>-7145</v>
       </c>
       <c r="E3" s="2">
-        <v>5.133</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F3" s="2">
-        <v>-3.7229999999999999</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -680,13 +704,13 @@
         <v>2140</v>
       </c>
       <c r="E4" s="2">
-        <v>10.317</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="F4" s="2">
-        <v>1.7010000000000001</v>
+        <v>-15.904999999999999</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -695,7 +719,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -721,22 +745,22 @@
         <v>-3340</v>
       </c>
       <c r="E5" s="2">
-        <v>5.758</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="F5" s="2">
-        <v>-3.4279999999999999</v>
+        <v>-4.7279999999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -762,22 +786,22 @@
         <v>4144</v>
       </c>
       <c r="E6" s="2">
-        <v>-2.827</v>
+        <v>-7.0250000000000004</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.879</v>
+        <v>-2.3260000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -803,22 +827,22 @@
         <v>-4955</v>
       </c>
       <c r="E7" s="2">
-        <v>-0.55600000000000005</v>
+        <v>-3.6269999999999998</v>
       </c>
       <c r="F7" s="2">
-        <v>-6.415</v>
+        <v>-10.087999999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -844,13 +868,13 @@
         <v>-19403</v>
       </c>
       <c r="E8" s="2">
-        <v>-6.5019999999999998</v>
+        <v>-0.41599999999999998</v>
       </c>
       <c r="F8" s="2">
-        <v>-19.513999999999999</v>
+        <v>-17.129000000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -859,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -885,13 +909,13 @@
         <v>-7249</v>
       </c>
       <c r="E9" s="2">
-        <v>-3.6269999999999998</v>
+        <v>-6.25</v>
       </c>
       <c r="F9" s="2">
-        <v>-10.087999999999999</v>
+        <v>-12.894</v>
       </c>
       <c r="G9" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -900,7 +924,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -926,22 +950,22 @@
         <v>-2321</v>
       </c>
       <c r="E10" s="2">
-        <v>-1.226</v>
+        <v>-2.681</v>
       </c>
       <c r="F10" s="2">
-        <v>-1.4530000000000001</v>
+        <v>-1.214</v>
       </c>
       <c r="G10" s="2">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -967,13 +991,13 @@
         <v>-28155</v>
       </c>
       <c r="E11" s="2">
-        <v>-10.756</v>
+        <v>-2.351</v>
       </c>
       <c r="F11" s="2">
-        <v>-23.997</v>
+        <v>-23.28</v>
       </c>
       <c r="G11" s="2">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -982,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1008,13 +1032,13 @@
         <v>-24895</v>
       </c>
       <c r="E12" s="2">
-        <v>-8.6839999999999993</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>-22.768000000000001</v>
+        <v>-22.699000000000002</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1023,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1049,13 +1073,13 @@
         <v>11667</v>
       </c>
       <c r="E13" s="2">
-        <v>-7.4160000000000004</v>
+        <v>-11.254</v>
       </c>
       <c r="F13" s="2">
-        <v>12.14</v>
+        <v>-1.5720000000000001</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1064,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1090,13 +1114,13 @@
         <v>12411</v>
       </c>
       <c r="E14" s="2">
-        <v>-19.045999999999999</v>
+        <v>-15.064</v>
       </c>
       <c r="F14" s="2">
-        <v>4.798</v>
+        <v>5.125</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1105,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -1131,22 +1155,22 @@
         <v>-3272</v>
       </c>
       <c r="E15" s="2">
-        <v>10.317</v>
+        <v>19.068999999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>1.7010000000000001</v>
+        <v>-5.9870000000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1172,22 +1196,22 @@
         <v>-4126</v>
       </c>
       <c r="E16" s="2">
-        <v>-18.446000000000002</v>
+        <v>-19.045999999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>-7.7270000000000003</v>
+        <v>4.798</v>
       </c>
       <c r="G16" s="2">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -1213,22 +1237,22 @@
         <v>5152</v>
       </c>
       <c r="E17" s="2">
-        <v>16.286999999999999</v>
+        <v>17.835999999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>1.1719999999999999</v>
+        <v>-9.19</v>
       </c>
       <c r="G17" s="2">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -1254,22 +1278,22 @@
         <v>-26497</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.19600000000000001</v>
+        <v>10.717000000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>-22.699000000000002</v>
+        <v>-22.256</v>
       </c>
       <c r="G18" s="2">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -1295,22 +1319,22 @@
         <v>-19160</v>
       </c>
       <c r="E19" s="2">
-        <v>3.3959999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="F19" s="2">
-        <v>-18.350000000000001</v>
+        <v>-17.370999999999999</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -1336,22 +1360,22 @@
         <v>-8383</v>
       </c>
       <c r="E20" s="2">
-        <v>-11.254</v>
+        <v>-19.882999999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>-1.5720000000000001</v>
+        <v>-7.4390000000000001</v>
       </c>
       <c r="G20" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -1377,22 +1401,22 @@
         <v>-12518</v>
       </c>
       <c r="E21" s="2">
-        <v>10.846</v>
+        <v>9.7889999999999997</v>
       </c>
       <c r="F21" s="2">
-        <v>-16.361000000000001</v>
+        <v>-21.245000000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>

--- a/data/aunt1.2(1, 1).xlsx
+++ b/data/aunt1.2(1, 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ下载文件\MathorCup大数据竞赛资料\代码\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65569136-6694-44AC-A46E-C54C674610F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5384C4A-8F8A-4896-83B2-7B2847D22F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>serviceScore</t>
   </si>
@@ -61,85 +61,73 @@
     <t>id</t>
   </si>
   <si>
-    <t>[122, 158]</t>
-  </si>
-  <si>
-    <t>[138, 84]</t>
-  </si>
-  <si>
-    <t>[153, 135]</t>
-  </si>
-  <si>
-    <t>[99, 86]</t>
-  </si>
-  <si>
-    <t>[75, 174]</t>
-  </si>
-  <si>
-    <t>[66, 123]</t>
-  </si>
-  <si>
-    <t>[146, 93, 24]</t>
-  </si>
-  <si>
-    <t>[17, 150]</t>
-  </si>
-  <si>
-    <t>[70, 68]</t>
-  </si>
-  <si>
-    <t>[77, 67, 30]</t>
-  </si>
-  <si>
-    <t>[15, 147, 178]</t>
-  </si>
-  <si>
-    <t>[145, 29]</t>
-  </si>
-  <si>
-    <t>[61, 168]</t>
-  </si>
-  <si>
-    <t>[163, 35]</t>
-  </si>
-  <si>
-    <t>[89, 107, 69]</t>
-  </si>
-  <si>
-    <t>[119, 39]</t>
-  </si>
-  <si>
-    <t>[110, 134]</t>
-  </si>
-  <si>
-    <t>[130, 59, 1]</t>
-  </si>
-  <si>
-    <t>[81, 11, 90]</t>
-  </si>
-  <si>
-    <t>[58, 7, 97, 124]</t>
+    <t>[122]</t>
+  </si>
+  <si>
+    <t>[138, 123]</t>
+  </si>
+  <si>
+    <t>[153]</t>
+  </si>
+  <si>
+    <t>[99, 59]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[146]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[70, 29]</t>
+  </si>
+  <si>
+    <t>[77, 178]</t>
+  </si>
+  <si>
+    <t>[15, 147]</t>
+  </si>
+  <si>
+    <t>[145]</t>
+  </si>
+  <si>
+    <t>[61]</t>
+  </si>
+  <si>
+    <t>[163]</t>
+  </si>
+  <si>
+    <t>[89, 69]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[110]</t>
+  </si>
+  <si>
+    <t>[130]</t>
+  </si>
+  <si>
+    <t>[81, 11]</t>
+  </si>
+  <si>
+    <t>[58, 97]</t>
+  </si>
+  <si>
+    <t>[0.0]</t>
+  </si>
+  <si>
+    <t>[0.0, 1.5]</t>
   </si>
   <si>
     <t>[0.0, 2.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.5]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 3.5]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 3.5]</t>
-  </si>
-  <si>
-    <t>[0.0, 2.0, 4.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 1.5, 3.0, 4.0]</t>
   </si>
 </sst>
 </file>
@@ -205,13 +193,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,18 +538,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -612,40 +591,40 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.99980000000000002</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>931</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>-31576</v>
       </c>
-      <c r="E2" s="2">
-        <v>-2.88</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-39.468000000000004</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="E2">
+        <v>3.387</v>
+      </c>
+      <c r="F2">
+        <v>-36.155000000000001</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
     </row>
@@ -653,40 +632,40 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>0.99929999999999997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>7529</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>-7145</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-4.7279999999999998</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3">
+        <v>-3.6269999999999998</v>
+      </c>
+      <c r="F3">
+        <v>-10.087999999999999</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
@@ -694,40 +673,40 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>0.99919999999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>5393</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>2140</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-15.904999999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="E4">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="F4">
+        <v>-3.0070000000000001</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
@@ -735,40 +714,40 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>0.999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>5982</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>-3340</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-4.7279999999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="E5">
+        <v>3.3959999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-18.350000000000001</v>
+      </c>
+      <c r="G5">
+        <v>4.5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
@@ -776,40 +755,40 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>0.99880000000000002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>-3975</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>4144</v>
       </c>
-      <c r="E6" s="2">
-        <v>-7.0250000000000004</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-2.3260000000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="E6">
+        <v>-2.827</v>
+      </c>
+      <c r="F6">
+        <v>-0.879</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
@@ -817,40 +796,40 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0.99860000000000004</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>-1664</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>-4955</v>
       </c>
-      <c r="E7" s="2">
-        <v>-3.6269999999999998</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-10.087999999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="E7">
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="F7">
+        <v>-6.415</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
@@ -858,40 +837,40 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0.99819999999999998</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>-9033</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>-19403</v>
       </c>
-      <c r="E8" s="2">
-        <v>-0.41599999999999998</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-17.129000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="E8">
+        <v>-6.5019999999999998</v>
+      </c>
+      <c r="F8">
+        <v>-19.513999999999999</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -899,40 +878,40 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>0.99809999999999999</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>3469</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>-7249</v>
       </c>
-      <c r="E9" s="2">
-        <v>-6.25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-12.894</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="E9">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F9">
+        <v>-4.7279999999999998</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
@@ -940,40 +919,40 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>0.99790000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>775</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>-2321</v>
       </c>
-      <c r="E10" s="2">
-        <v>-2.681</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-1.214</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="E10">
+        <v>-11.254</v>
+      </c>
+      <c r="F10">
+        <v>-1.5720000000000001</v>
+      </c>
+      <c r="G10">
+        <v>3.5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
@@ -981,40 +960,40 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>0.99760000000000004</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>-15148</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>-28155</v>
       </c>
-      <c r="E11" s="2">
-        <v>-2.351</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-23.28</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="E11">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="F11">
+        <v>-22.699000000000002</v>
+      </c>
+      <c r="G11">
+        <v>3.5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
@@ -1022,40 +1001,40 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>0.99739999999999995</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>-10904</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>-24895</v>
       </c>
-      <c r="E12" s="2">
-        <v>-0.19600000000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-22.699000000000002</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="E12">
+        <v>-8.6839999999999993</v>
+      </c>
+      <c r="F12">
+        <v>-22.768000000000001</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
@@ -1063,40 +1042,40 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>0.99709999999999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>2161</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>11667</v>
       </c>
-      <c r="E13" s="2">
-        <v>-11.254</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-1.5720000000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="E13">
+        <v>-8.4079999999999995</v>
+      </c>
+      <c r="F13">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G13">
+        <v>2.5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>
@@ -1104,40 +1083,40 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>0.99680000000000002</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>-8408</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>12411</v>
       </c>
-      <c r="E14" s="2">
-        <v>-15.064</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5.125</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="E14">
+        <v>-7.4160000000000004</v>
+      </c>
+      <c r="F14">
+        <v>12.14</v>
+      </c>
+      <c r="G14">
+        <v>2.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
     </row>
@@ -1145,40 +1124,40 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>0.99650000000000005</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>9108</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>-3272</v>
       </c>
-      <c r="E15" s="2">
-        <v>19.068999999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-5.9870000000000001</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="E15">
+        <v>10.317</v>
+      </c>
+      <c r="F15">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
     </row>
@@ -1186,40 +1165,40 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>0.99650000000000005</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>-16025</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>-4126</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>-19.045999999999999</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>4.798</v>
       </c>
-      <c r="G16" s="2">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
     </row>
@@ -1227,40 +1206,40 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>0.99650000000000005</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>18697</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>5152</v>
       </c>
-      <c r="E17" s="2">
-        <v>17.835999999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-9.19</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="E17">
+        <v>16.286999999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="G17">
+        <v>2.5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
     </row>
@@ -1268,40 +1247,40 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>0.99619999999999997</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>5933</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>-26497</v>
       </c>
-      <c r="E18" s="2">
-        <v>10.717000000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-22.256</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="E18">
+        <v>9.7680000000000007</v>
+      </c>
+      <c r="F18">
+        <v>-26.391999999999999</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
     </row>
@@ -1309,40 +1288,40 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>0.99590000000000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>5874</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>-19160</v>
       </c>
-      <c r="E19" s="2">
-        <v>2.1760000000000002</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-17.370999999999999</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="E19">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="F19">
+        <v>-18.920000000000002</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
@@ -1350,40 +1329,40 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>0.99580000000000002</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>-12283</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>-8383</v>
       </c>
-      <c r="E20" s="2">
-        <v>-19.882999999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-7.4390000000000001</v>
-      </c>
-      <c r="G20" s="2">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="E20">
+        <v>-18.446000000000002</v>
+      </c>
+      <c r="F20">
+        <v>-7.7270000000000003</v>
+      </c>
+      <c r="G20">
+        <v>3.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
     </row>
@@ -1391,45 +1370,46 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>0.99539999999999995</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>7530</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>-12518</v>
       </c>
-      <c r="E21" s="2">
-        <v>9.7889999999999997</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-21.245000000000001</v>
-      </c>
-      <c r="G21" s="2">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="E21">
+        <v>10.846</v>
+      </c>
+      <c r="F21">
+        <v>-16.361000000000001</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>